--- a/10_UAC/WebRoot/user/userlist.xlsx
+++ b/10_UAC/WebRoot/user/userlist.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="3255" yWindow="1545" windowWidth="13320" windowHeight="10920" tabRatio="599"/>
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="userlist" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>邮箱名</t>
   </si>
@@ -38,21 +38,36 @@
   </si>
   <si>
     <t>职位</t>
+  </si>
+  <si>
+    <t>admin@shopin.cn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">admin               </t>
+  </si>
+  <si>
+    <t>263G</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>用户类型</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>customers</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <t>姓sn</t>
+  </si>
+  <si>
+    <t>名cn</t>
+  </si>
+  <si>
+    <t>employees</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="19">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -639,8 +654,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -699,7 +717,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -773,6 +791,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -807,6 +826,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -982,66 +1002,116 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K458"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="26.375" customWidth="1"/>
-    <col min="2" max="2" width="17.625" customWidth="1"/>
-    <col min="3" max="3" width="19.25" customWidth="1"/>
-    <col min="4" max="4" width="19.875" customWidth="1"/>
-    <col min="5" max="5" width="18.125" customWidth="1"/>
-    <col min="6" max="6" width="12.875" customWidth="1"/>
-    <col min="7" max="7" width="20.5" customWidth="1"/>
-    <col min="8" max="8" width="32.25" customWidth="1"/>
+    <col min="1" max="3" width="26.375" customWidth="1"/>
+    <col min="4" max="4" width="25.125" customWidth="1"/>
+    <col min="5" max="5" width="19.25" customWidth="1"/>
+    <col min="6" max="6" width="19.875" customWidth="1"/>
+    <col min="7" max="7" width="18.125" customWidth="1"/>
+    <col min="8" max="8" width="12.875" customWidth="1"/>
+    <col min="9" max="9" width="20.5" customWidth="1"/>
+    <col min="10" max="10" width="32.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
         <v>8</v>
       </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>110110</v>
+      </c>
+      <c r="K2" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:9">
-      <c r="I2" t="s">
-        <v>9</v>
-      </c>
+    <row r="159" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D159" s="1"/>
     </row>
+    <row r="176" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D176" s="1"/>
+    </row>
+    <row r="205" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D205" s="1"/>
+    </row>
+    <row r="220" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D220" s="1"/>
+    </row>
+    <row r="245" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D245" s="1"/>
+    </row>
+    <row r="263" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D263" s="1"/>
+    </row>
+    <row r="273" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D273" s="1"/>
+    </row>
+    <row r="293" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D293" s="1"/>
+    </row>
+    <row r="458" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:K1048576">
       <formula1>"customers,employees,suppliers,specialuser"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>